--- a/Data_files/appointments.xlsx
+++ b/Data_files/appointments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="6220" windowWidth="21680" windowHeight="10160" tabRatio="500"/>
+    <workbookView xWindow="9820" yWindow="6640" windowWidth="21680" windowHeight="10160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Data_files/appointments.xlsx
+++ b/Data_files/appointments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Data Science Initiative</t>
+  </si>
+  <si>
+    <t>Eratus Otis Haven Professor</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +557,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A13" si="0">A3+1</f>
+        <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
@@ -789,6 +792,30 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Data_files/appointments.xlsx
+++ b/Data_files/appointments.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/PycharmProjects/maintaining_latex_cv/Data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/Box Sync/CodingProjects/maintaining_latex_cv/Data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745A424A-10F0-C942-85DC-FE124E435017}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="6640" windowWidth="21680" windowHeight="10160" tabRatio="500"/>
+    <workbookView xWindow="9820" yWindow="6640" windowWidth="21680" windowHeight="10160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -131,13 +132,16 @@
     <t>Data Science Initiative</t>
   </si>
   <si>
-    <t>Eratus Otis Haven Professor</t>
+    <t>Dept. of Molecular Biosciences</t>
+  </si>
+  <si>
+    <t>Erastus Otis Haven Professor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -207,6 +211,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -474,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,7 +564,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A14" si="0">A3+1</f>
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
@@ -803,19 +810,43 @@
       <c r="B14">
         <v>2017</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2017</v>
+      </c>
+      <c r="C15">
         <v>2022</v>
       </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
         <v>20</v>
       </c>
     </row>
